--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -101,7 +101,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
+              <a:rPr lang="en-US"/>
               <a:t>bmet.fidordermkt Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
@@ -225,7 +225,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Dates</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100"/>
@@ -258,7 +258,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Count</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100"/>
@@ -303,7 +303,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
+              <a:rPr lang="en-US"/>
               <a:t>bmet.fidorderfill Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
@@ -427,7 +427,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Dates</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100"/>
@@ -460,7 +460,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Count</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100"/>
